--- a/app/data/data.xlsx
+++ b/app/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caste\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Almacenamiento\CodingLab\RepositoriosGitHub\bio-route-optimization-aco\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F968895-D4B0-43AD-8F9A-0344CC7ECE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C974044-AFC0-49DD-B799-12E539EE5301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="122">
   <si>
     <t>Zona</t>
   </si>
@@ -377,6 +377,15 @@
   </si>
   <si>
     <t>Zona Amarillo</t>
+  </si>
+  <si>
+    <t>Demanda</t>
+  </si>
+  <si>
+    <t>HoraCierre</t>
+  </si>
+  <si>
+    <t>HoraApertura</t>
   </si>
 </sst>
 </file>
@@ -406,7 +415,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -429,15 +438,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,20 +764,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="53" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,8 +791,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -780,8 +814,17 @@
       <c r="D2">
         <v>-100.38402189999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2">
+        <v>7.5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -794,8 +837,17 @@
       <c r="D3">
         <v>-100.3990094</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3">
+        <v>7.5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -808,8 +860,17 @@
       <c r="D4">
         <v>-100.4043987</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4">
+        <v>7.5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -822,8 +883,17 @@
       <c r="D5">
         <v>-100.4018848</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E5">
+        <v>7.5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -836,8 +906,17 @@
       <c r="D6">
         <v>-100.39684</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E6">
+        <v>7.5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -850,8 +929,17 @@
       <c r="D7">
         <v>-100.3968587</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E7">
+        <v>7.5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -864,8 +952,17 @@
       <c r="D8">
         <v>-100.3979575</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E8">
+        <v>7.5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -878,8 +975,17 @@
       <c r="D9">
         <v>-100.3952724</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E9">
+        <v>7.5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -892,8 +998,17 @@
       <c r="D10">
         <v>-100.3987662</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E10">
+        <v>7.5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -906,8 +1021,17 @@
       <c r="D11">
         <v>-100.38114779999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E11">
+        <v>7.5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -920,8 +1044,17 @@
       <c r="D12">
         <v>-100.3845956</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E12">
+        <v>7.5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -934,8 +1067,17 @@
       <c r="D13">
         <v>-100.3887331</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E13">
+        <v>7.5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -948,8 +1090,17 @@
       <c r="D14">
         <v>-100.3953163</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E14">
+        <v>7.5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -962,8 +1113,17 @@
       <c r="D15">
         <v>-100.3884797</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E15">
+        <v>7.5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -976,8 +1136,17 @@
       <c r="D16">
         <v>-100.39171140000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E16">
+        <v>7.5</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -990,8 +1159,17 @@
       <c r="D17">
         <v>-100.3766148</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E17">
+        <v>7.5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1004,8 +1182,17 @@
       <c r="D18">
         <v>-100.3865121</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E18">
+        <v>7.5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1018,8 +1205,17 @@
       <c r="D19">
         <v>-100.3976401</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E19">
+        <v>7.5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1032,8 +1228,17 @@
       <c r="D20">
         <v>-100.3860573</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E20">
+        <v>7.5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1046,8 +1251,17 @@
       <c r="D21">
         <v>-100.4009014</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E21">
+        <v>7.5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1060,8 +1274,17 @@
       <c r="D22">
         <v>-100.39561999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E22">
+        <v>7.5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1074,8 +1297,17 @@
       <c r="D23">
         <v>-100.2890816</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E23">
+        <v>7.5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1088,8 +1320,17 @@
       <c r="D24">
         <v>-100.2867468</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E24">
+        <v>7.5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1102,8 +1343,17 @@
       <c r="D25">
         <v>-100.3229608</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E25">
+        <v>7.5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1116,8 +1366,17 @@
       <c r="D26">
         <v>-100.3323292</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E26">
+        <v>7.5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1130,8 +1389,17 @@
       <c r="D27">
         <v>-100.3299773</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E27">
+        <v>7.5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1144,8 +1412,17 @@
       <c r="D28">
         <v>-100.3230875</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E28">
+        <v>7.5</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1158,8 +1435,17 @@
       <c r="D29">
         <v>-100.3209682</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E29">
+        <v>7.5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1172,8 +1458,17 @@
       <c r="D30">
         <v>-100.3242577</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E30">
+        <v>7.5</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1186,8 +1481,17 @@
       <c r="D31">
         <v>-100.2865924</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E31">
+        <v>7.5</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1200,8 +1504,17 @@
       <c r="D32">
         <v>-100.3311875</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E32">
+        <v>7.5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1214,8 +1527,17 @@
       <c r="D33">
         <v>-100.3234345</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E33">
+        <v>7.5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1228,8 +1550,17 @@
       <c r="D34">
         <v>-100.3730884</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E34">
+        <v>7.5</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1242,8 +1573,17 @@
       <c r="D35">
         <v>-100.3917598</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E35">
+        <v>7.5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1256,8 +1596,17 @@
       <c r="D36">
         <v>-100.3927642</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E36">
+        <v>7.5</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1270,8 +1619,17 @@
       <c r="D37">
         <v>-100.38314990000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E37">
+        <v>7.5</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1284,8 +1642,17 @@
       <c r="D38">
         <v>-100.4006514</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E38">
+        <v>7.5</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1298,8 +1665,17 @@
       <c r="D39">
         <v>-100.3977074</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E39">
+        <v>7.5</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1312,8 +1688,17 @@
       <c r="D40">
         <v>-100.3871877</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E40">
+        <v>7.5</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1326,8 +1711,17 @@
       <c r="D41">
         <v>-100.38586429999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E41">
+        <v>7.5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -1340,8 +1734,17 @@
       <c r="D42">
         <v>-100.3964072</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E42">
+        <v>7.5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -1354,8 +1757,17 @@
       <c r="D43">
         <v>-100.3786521</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E43">
+        <v>7.5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1368,8 +1780,17 @@
       <c r="D44">
         <v>-100.38934930000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E44">
+        <v>7.5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -1382,8 +1803,17 @@
       <c r="D45">
         <v>-100.3668663</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E45">
+        <v>7.5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -1396,8 +1826,17 @@
       <c r="D46">
         <v>-100.3928851</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E46">
+        <v>7.5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -1410,8 +1849,17 @@
       <c r="D47">
         <v>-100.3735111</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E47">
+        <v>7.5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -1424,8 +1872,17 @@
       <c r="D48">
         <v>-100.3731569</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E48">
+        <v>7.5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1438,8 +1895,17 @@
       <c r="D49">
         <v>-100.4507526</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E49">
+        <v>7.5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1452,8 +1918,17 @@
       <c r="D50">
         <v>-100.4507272</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E50">
+        <v>7.5</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1466,8 +1941,17 @@
       <c r="D51">
         <v>-100.44674879999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E51">
+        <v>7.5</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1480,8 +1964,17 @@
       <c r="D52">
         <v>-100.4556942</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E52">
+        <v>7.5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1494,8 +1987,17 @@
       <c r="D53">
         <v>-100.4592212</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E53">
+        <v>7.5</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1508,8 +2010,17 @@
       <c r="D54">
         <v>-100.4528056</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E54">
+        <v>7.5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1522,8 +2033,17 @@
       <c r="D55">
         <v>-100.4551841</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E55">
+        <v>7.5</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1536,8 +2056,17 @@
       <c r="D56">
         <v>-100.4348688</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E56">
+        <v>7.5</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -1550,8 +2079,17 @@
       <c r="D57">
         <v>-100.4611749</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E57">
+        <v>7.5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -1564,8 +2102,17 @@
       <c r="D58">
         <v>-100.4743586</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E58">
+        <v>7.5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -1578,8 +2125,17 @@
       <c r="D59">
         <v>-100.47189210000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E59">
+        <v>7.5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -1592,8 +2148,17 @@
       <c r="D60">
         <v>-100.4523226</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E60">
+        <v>7.5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -1606,8 +2171,17 @@
       <c r="D61">
         <v>-100.46108270000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E61">
+        <v>7.5</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -1620,8 +2194,17 @@
       <c r="D62">
         <v>-100.468789</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E62">
+        <v>7.5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -1634,8 +2217,17 @@
       <c r="D63">
         <v>-100.46064730000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E63">
+        <v>7.5</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -1648,8 +2240,17 @@
       <c r="D64">
         <v>-100.4553044</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E64">
+        <v>7.5</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -1662,8 +2263,17 @@
       <c r="D65">
         <v>-100.41975189999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E65">
+        <v>7.5</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -1676,8 +2286,17 @@
       <c r="D66">
         <v>-100.45061200000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E66">
+        <v>7.5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -1690,8 +2309,17 @@
       <c r="D67">
         <v>-100.4522288</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E67">
+        <v>7.5</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -1704,8 +2332,17 @@
       <c r="D68">
         <v>-100.4347375</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E68">
+        <v>7.5</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -1718,8 +2355,17 @@
       <c r="D69">
         <v>-100.44808759999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E69">
+        <v>7.5</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1732,8 +2378,17 @@
       <c r="D70">
         <v>-100.4532669</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E70">
+        <v>7.5</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1746,8 +2401,17 @@
       <c r="D71">
         <v>-100.4390154</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E71">
+        <v>7.5</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -1760,8 +2424,17 @@
       <c r="D72">
         <v>-100.4529869</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E72">
+        <v>7.5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -1774,8 +2447,17 @@
       <c r="D73">
         <v>-100.41905749999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E73">
+        <v>7.5</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -1788,8 +2470,17 @@
       <c r="D74">
         <v>-100.45104000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E74">
+        <v>7.5</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -1802,8 +2493,17 @@
       <c r="D75">
         <v>-100.4482283</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E75">
+        <v>7.5</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -1816,8 +2516,17 @@
       <c r="D76">
         <v>-100.44136589999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E76">
+        <v>7.5</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -1830,8 +2539,17 @@
       <c r="D77">
         <v>-100.4473831</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E77">
+        <v>7.5</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>71</v>
       </c>
@@ -1844,8 +2562,17 @@
       <c r="D78">
         <v>-100.4368504</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E78">
+        <v>7.5</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>71</v>
       </c>
@@ -1858,8 +2585,17 @@
       <c r="D79">
         <v>-100.4482746</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E79">
+        <v>7.5</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>71</v>
       </c>
@@ -1872,8 +2608,17 @@
       <c r="D80">
         <v>-100.4490035</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E80">
+        <v>7.5</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -1886,8 +2631,17 @@
       <c r="D81">
         <v>-100.4464813</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E81">
+        <v>7.5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -1900,8 +2654,17 @@
       <c r="D82">
         <v>-100.44376149999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E82">
+        <v>7.5</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -1914,8 +2677,17 @@
       <c r="D83">
         <v>-100.4186514</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E83">
+        <v>7.5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -1928,8 +2700,17 @@
       <c r="D84">
         <v>-100.4267299</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E84">
+        <v>7.5</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -1942,8 +2723,17 @@
       <c r="D85">
         <v>-100.4582972</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E85">
+        <v>7.5</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G85" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -1956,8 +2746,17 @@
       <c r="D86">
         <v>-100.4140256</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E86">
+        <v>7.5</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -1970,8 +2769,17 @@
       <c r="D87">
         <v>-100.4705682</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E87">
+        <v>7.5</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -1984,8 +2792,17 @@
       <c r="D88">
         <v>-100.4585952</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E88">
+        <v>7.5</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -1998,8 +2815,17 @@
       <c r="D89">
         <v>-100.42540940000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E89">
+        <v>7.5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2012,8 +2838,17 @@
       <c r="D90">
         <v>-100.43938540000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E90">
+        <v>7.5</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -2026,8 +2861,17 @@
       <c r="D91">
         <v>-100.4102723</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E91">
+        <v>7.5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -2040,8 +2884,17 @@
       <c r="D92">
         <v>-100.45051429999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E92">
+        <v>7.5</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>88</v>
       </c>
@@ -2054,8 +2907,17 @@
       <c r="D93">
         <v>-100.4356861</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E93">
+        <v>7.5</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>88</v>
       </c>
@@ -2068,8 +2930,17 @@
       <c r="D94">
         <v>-100.43038799999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E94">
+        <v>7.5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -2082,8 +2953,17 @@
       <c r="D95">
         <v>-100.4242091</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E95">
+        <v>7.5</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>88</v>
       </c>
@@ -2096,8 +2976,17 @@
       <c r="D96">
         <v>-100.4352112</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E96">
+        <v>7.5</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -2110,8 +2999,17 @@
       <c r="D97">
         <v>-100.4182658</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E97">
+        <v>7.5</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -2124,8 +3022,17 @@
       <c r="D98">
         <v>-100.42086310000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E98">
+        <v>7.5</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -2138,8 +3045,17 @@
       <c r="D99">
         <v>-100.3501294</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E99">
+        <v>7.5</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>118</v>
       </c>
@@ -2152,8 +3068,17 @@
       <c r="D100">
         <v>-100.3335304</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E100">
+        <v>7.5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -2166,8 +3091,17 @@
       <c r="D101">
         <v>-100.3461109</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E101">
+        <v>7.5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -2180,8 +3114,17 @@
       <c r="D102">
         <v>-100.34686309999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E102">
+        <v>7.5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>118</v>
       </c>
@@ -2194,8 +3137,17 @@
       <c r="D103">
         <v>-100.34988319999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E103">
+        <v>7.5</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -2208,8 +3160,17 @@
       <c r="D104">
         <v>-100.3323445</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E104">
+        <v>7.5</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -2222,8 +3183,17 @@
       <c r="D105">
         <v>-100.3384853</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E105">
+        <v>7.5</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>118</v>
       </c>
@@ -2236,8 +3206,17 @@
       <c r="D106">
         <v>-100.3406583</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E106">
+        <v>7.5</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>118</v>
       </c>
@@ -2250,8 +3229,17 @@
       <c r="D107">
         <v>-100.3431487</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E107">
+        <v>7.5</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>118</v>
       </c>
@@ -2263,6 +3251,15 @@
       </c>
       <c r="D108">
         <v>-100.3440973</v>
+      </c>
+      <c r="E108">
+        <v>7.5</v>
+      </c>
+      <c r="F108" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0.83333333333333304</v>
       </c>
     </row>
   </sheetData>
